--- a/Hazing Database .xlsx
+++ b/Hazing Database .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbarth/Desktop/PolDataAnalysis /Hazing Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbarth/Documents/GitHub/greeklifehaze/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="12960" yWindow="460" windowWidth="12520" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="222">
   <si>
     <t>Organization</t>
   </si>
@@ -681,6 +681,18 @@
   </si>
   <si>
     <t>Length of Sanction (in Months)</t>
+  </si>
+  <si>
+    <t>UNC-Charlotte</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>East Carolina University</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="C198" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,6 +3547,70 @@
         <v>197</v>
       </c>
     </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>218</v>
+      </c>
+      <c r="D205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>218</v>
+      </c>
+      <c r="D206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>221</v>
+      </c>
+      <c r="D211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
